--- a/2016년 수강료 6월/기타교실 수강료.xlsx
+++ b/2016년 수강료 6월/기타교실 수강료.xlsx
@@ -162,40 +162,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>

--- a/2016년 수강료 6월/기타교실 수강료.xlsx
+++ b/2016년 수강료 6월/기타교실 수강료.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>*주야</t>
   </si>
@@ -76,18 +76,6 @@
   </si>
   <si>
     <t>류시연</t>
-  </si>
-  <si>
-    <t>시수</t>
-  </si>
-  <si>
-    <t>수강료</t>
-  </si>
-  <si>
-    <t>수용비</t>
-  </si>
-  <si>
-    <t>계</t>
   </si>
 </sst>
 </file>
@@ -145,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,49 +141,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -491,353 +488,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9" style="12" customWidth="1"/>
-    <col min="4" max="4" width="7" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="4" width="9.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9">
-        <f t="shared" ref="F2:F12" si="0">F$17</f>
-        <v>27500</v>
-      </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="F2" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="F3" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="F4" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="F6" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="F7" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>9</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="F8" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="F9" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="F10" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="F11" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="4">
         <v>12</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>27500</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="5">
+        <v>27500</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>35000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1">
-        <f>B15*C15</f>
-        <v>280000</v>
-      </c>
-      <c r="F15" s="1">
-        <f>ROUNDUP(E15/11,-1)</f>
-        <v>25460</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <f>E15</f>
-        <v>280000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="E16" s="1">
-        <f>B16*C16</f>
-        <v>22400</v>
-      </c>
-      <c r="F16" s="1">
-        <f>ROUNDUP(E16/11,-1)</f>
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1">
-        <f>SUM(F15:F16)</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
